--- a/excel/sheets/Timesheet_Miroslav_Radojevic_W48_2021.xlsx
+++ b/excel/sheets/Timesheet_Miroslav_Radojevic_W48_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuctechnl-my.sharepoint.com/personal/mradojevic_nuctechnl_onmicrosoft_com/Documents/sheets/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{D83BB67A-2450-C74F-9BD1-AF00D39280B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E24EBB32-3BB6-574E-BEAC-5C83869ADEAD}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{D83BB67A-2450-C74F-9BD1-AF00D39280B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22B07047-CCAC-EC4E-ACCD-CFED9CF31E68}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="27740" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,6 +972,48 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -980,56 +1022,14 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1411,23 +1411,23 @@
       <c r="D1" s="3"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A2" s="19"/>
@@ -1445,42 +1445,42 @@
       <c r="M2" s="21"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
     </row>
     <row r="3" spans="1:26" s="42" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="64" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="64" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="71" t="s">
+      <c r="H3" s="87"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="88"/>
       <c r="N3" s="41"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
       <c r="W3" s="43"/>
     </row>
     <row r="4" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
@@ -1510,224 +1510,224 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="73" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="73" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="73" t="s">
+      <c r="K5" s="67"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73" t="s">
+      <c r="N5" s="67"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="73" t="s">
+      <c r="Q5" s="67"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="74"/>
-      <c r="U5" s="75"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="68"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="70"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="76"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="70"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="76"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="70"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="76"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="69"/>
       <c r="K6" s="70"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="76"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="70"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="76"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="69"/>
       <c r="Q6" s="70"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="76"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="69"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="77"/>
+      <c r="U6" s="71"/>
     </row>
     <row r="7" spans="1:26" s="15" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="72">
         <v>0.375</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="72">
         <v>0.375</v>
       </c>
-      <c r="F7" s="79"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="72">
         <v>0.375</v>
       </c>
-      <c r="I7" s="79"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="72">
         <v>0.375</v>
       </c>
-      <c r="L7" s="79"/>
+      <c r="L7" s="73"/>
       <c r="M7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="78">
+      <c r="N7" s="72">
         <v>0.375</v>
       </c>
-      <c r="O7" s="79"/>
+      <c r="O7" s="73"/>
       <c r="P7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="78">
+      <c r="Q7" s="72">
         <v>-8</v>
       </c>
-      <c r="R7" s="79"/>
+      <c r="R7" s="73"/>
       <c r="S7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="78">
+      <c r="T7" s="72">
         <v>-8</v>
       </c>
-      <c r="U7" s="79"/>
+      <c r="U7" s="73"/>
     </row>
     <row r="8" spans="1:26" s="15" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="80">
+      <c r="B8" s="78">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="78">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F8" s="79"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="78">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I8" s="79"/>
+      <c r="I8" s="73"/>
       <c r="J8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="80">
+      <c r="K8" s="78">
         <v>0.72916666666666663</v>
       </c>
-      <c r="L8" s="79"/>
+      <c r="L8" s="73"/>
       <c r="M8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="80">
+      <c r="N8" s="78">
         <v>0.72916666666666663</v>
       </c>
-      <c r="O8" s="79"/>
+      <c r="O8" s="73"/>
       <c r="P8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="78">
+      <c r="Q8" s="72">
         <v>-8</v>
       </c>
-      <c r="R8" s="79"/>
+      <c r="R8" s="73"/>
       <c r="S8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="78">
+      <c r="T8" s="72">
         <v>-8</v>
       </c>
-      <c r="U8" s="79"/>
+      <c r="U8" s="73"/>
     </row>
     <row r="9" spans="1:26" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="74">
         <f>IF(B7&gt;B8,B8+1-B7,B8-B7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="74">
         <f>IF(E7&gt;E8,E8+1-E7,E8-E7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="F9" s="82"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="74">
         <f>IF(H7&gt;H8,H8+1-H7,H8-H7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="I9" s="82"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="81">
+      <c r="K9" s="74">
         <f>IF(K7&gt;K8,K8+1-K7,K8-K7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="L9" s="82"/>
+      <c r="L9" s="75"/>
       <c r="M9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="81">
+      <c r="N9" s="74">
         <f>IF(N7&gt;N8,N8+1-N7,N8-N7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="O9" s="82"/>
+      <c r="O9" s="75"/>
       <c r="P9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="81">
+      <c r="Q9" s="74">
         <f>IF(Q7&gt;Q8,Q8+1-Q7,Q8-Q7)*24</f>
         <v>0</v>
       </c>
-      <c r="R9" s="82"/>
+      <c r="R9" s="75"/>
       <c r="S9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="81">
+      <c r="T9" s="74">
         <f>IF(T7&gt;T8,T8+1-T7,T8-T7)*24</f>
         <v>0</v>
       </c>
-      <c r="U9" s="82"/>
+      <c r="U9" s="75"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
@@ -1756,48 +1756,48 @@
       <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="76">
         <v>0.5</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="76">
         <v>0.5</v>
       </c>
-      <c r="F11" s="84"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="76">
         <v>0.5</v>
       </c>
-      <c r="I11" s="84"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="83">
+      <c r="K11" s="76">
         <v>0.5</v>
       </c>
-      <c r="L11" s="84"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="83">
+      <c r="N11" s="76">
         <v>0.5</v>
       </c>
-      <c r="O11" s="84"/>
+      <c r="O11" s="77"/>
       <c r="P11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="84"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="77"/>
       <c r="S11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="T11" s="83"/>
-      <c r="U11" s="84"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="77"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -1826,59 +1826,59 @@
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="79">
         <f>B9-B11</f>
         <v>8</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="79">
         <f>E9-E11</f>
         <v>8</v>
       </c>
-      <c r="F13" s="86"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="79">
         <f>H9-H11</f>
         <v>8</v>
       </c>
-      <c r="I13" s="86"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="85">
+      <c r="K13" s="79">
         <f>K9-K11</f>
         <v>8</v>
       </c>
-      <c r="L13" s="86"/>
+      <c r="L13" s="80"/>
       <c r="M13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="85">
+      <c r="N13" s="79">
         <f>N9-N11</f>
         <v>8</v>
       </c>
-      <c r="O13" s="86"/>
+      <c r="O13" s="80"/>
       <c r="P13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="85">
+      <c r="Q13" s="79">
         <f>Q9-Q11</f>
         <v>0</v>
       </c>
-      <c r="R13" s="86"/>
+      <c r="R13" s="80"/>
       <c r="S13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="T13" s="85">
+      <c r="T13" s="79">
         <f>T9-T11</f>
         <v>0</v>
       </c>
-      <c r="U13" s="86"/>
+      <c r="U13" s="80"/>
     </row>
     <row r="14" spans="1:26" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
@@ -1907,38 +1907,38 @@
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="88"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="88"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="88"/>
+      <c r="I15" s="83"/>
       <c r="J15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="87" t="s">
+      <c r="K15" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="88"/>
+      <c r="L15" s="83"/>
       <c r="M15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="87" t="s">
+      <c r="N15" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="88"/>
+      <c r="O15" s="83"/>
       <c r="P15" s="16" t="s">
         <v>15</v>
       </c>
@@ -1947,8 +1947,8 @@
       <c r="S15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="87"/>
-      <c r="U15" s="88"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="83"/>
     </row>
     <row r="16" spans="1:26" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
@@ -1977,28 +1977,28 @@
       <c r="A17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="83"/>
       <c r="J17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="87"/>
-      <c r="O17" s="88"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="83"/>
       <c r="P17" s="16" t="s">
         <v>17</v>
       </c>
@@ -2007,8 +2007,8 @@
       <c r="S17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T17" s="87"/>
-      <c r="U17" s="88"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="83"/>
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
@@ -2126,35 +2126,35 @@
         <v>67</v>
       </c>
       <c r="B21" s="49">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="44" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="52">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="44" t="s">
         <v>67</v>
       </c>
       <c r="H21" s="49">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I21" s="51"/>
       <c r="J21" s="44" t="s">
         <v>67</v>
       </c>
       <c r="K21" s="52">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L21" s="51"/>
       <c r="M21" s="44" t="s">
         <v>67</v>
       </c>
       <c r="N21" s="52">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O21" s="50"/>
       <c r="P21" s="44"/>
@@ -2169,35 +2169,35 @@
         <v>68</v>
       </c>
       <c r="B22" s="52">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="45" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="52">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="45" t="s">
         <v>68</v>
       </c>
       <c r="H22" s="52">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="45" t="s">
         <v>68</v>
       </c>
       <c r="K22" s="52">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="L22" s="54"/>
       <c r="M22" s="45" t="s">
         <v>68</v>
       </c>
       <c r="N22" s="52">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O22" s="53"/>
       <c r="P22" s="45"/>
@@ -2645,59 +2645,59 @@
       <c r="A41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="89">
+      <c r="B41" s="81">
         <f>IF(SUM(B21:B40)=0,"0",SUM(B21:B40))</f>
         <v>8</v>
       </c>
-      <c r="C41" s="79"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="89">
+      <c r="E41" s="81">
         <f>IF(SUM(E21:E40)=0,"0",SUM(E21:E40))</f>
         <v>8</v>
       </c>
-      <c r="F41" s="79"/>
+      <c r="F41" s="73"/>
       <c r="G41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="89">
+      <c r="H41" s="81">
         <f>IF(SUM(H21:H40)=0,"0",SUM(H21:H40))</f>
         <v>8</v>
       </c>
-      <c r="I41" s="79"/>
+      <c r="I41" s="73"/>
       <c r="J41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="K41" s="89">
+      <c r="K41" s="81">
         <f>IF(SUM(K21:K40)=0,"0",SUM(K21:K40))</f>
         <v>8</v>
       </c>
-      <c r="L41" s="79"/>
+      <c r="L41" s="73"/>
       <c r="M41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="N41" s="89">
+      <c r="N41" s="81">
         <f>IF(SUM(N21:N40)=0,"0",SUM(N21:N40))</f>
         <v>8</v>
       </c>
-      <c r="O41" s="79"/>
+      <c r="O41" s="73"/>
       <c r="P41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Q41" s="89" t="str">
+      <c r="Q41" s="81" t="str">
         <f>IF(SUM(Q21:Q40)=0,"0",SUM(Q21:Q40))</f>
         <v>0</v>
       </c>
-      <c r="R41" s="79"/>
+      <c r="R41" s="73"/>
       <c r="S41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="T41" s="89" t="str">
+      <c r="T41" s="81" t="str">
         <f>IF(SUM(T21:T40)=0,"0",SUM(T21:T40))</f>
         <v>0</v>
       </c>
-      <c r="U41" s="79"/>
+      <c r="U41" s="73"/>
     </row>
     <row r="42" spans="1:21" s="18" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="33"/>
@@ -2740,7 +2740,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="90" t="s">
+      <c r="M43" s="84" t="s">
         <v>22</v>
       </c>
       <c r="N43" s="5"/>
@@ -2753,7 +2753,7 @@
       <c r="U43" s="5"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="M44" s="91"/>
+      <c r="M44" s="85"/>
       <c r="N44" s="36"/>
       <c r="O44" s="36"/>
     </row>
@@ -2965,17 +2965,17 @@
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="63"/>
-      <c r="K62" s="92" t="s">
+      <c r="K62" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="68"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="65"/>
+      <c r="R62" s="65"/>
+      <c r="S62" s="65"/>
       <c r="T62" s="38"/>
       <c r="U62" s="38"/>
     </row>
@@ -2985,15 +2985,15 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="J63" s="62"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
     </row>
     <row r="64" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
@@ -3436,6 +3436,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="P1:U4"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T13:U13"/>
     <mergeCell ref="K62:S63"/>
     <mergeCell ref="P5:R6"/>
     <mergeCell ref="Q7:R7"/>
@@ -3452,59 +3505,6 @@
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="J5:L6"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="P1:U4"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="G1:M1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047249" right="0.11811023622047249" top="0.11811023622047249" bottom="0.11811023622047249" header="0" footer="0"/>

--- a/excel/sheets/Timesheet_Miroslav_Radojevic_W48_2021.xlsx
+++ b/excel/sheets/Timesheet_Miroslav_Radojevic_W48_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuctechnl-my.sharepoint.com/personal/mradojevic_nuctechnl_onmicrosoft_com/Documents/sheets/2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miroslav/source/python-snippets/excel/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{D83BB67A-2450-C74F-9BD1-AF00D39280B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22B07047-CCAC-EC4E-ACCD-CFED9CF31E68}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5206C-839B-4D44-9DB3-44A0199C42DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="27740" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,48 +972,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1022,14 +980,56 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1411,23 +1411,23 @@
       <c r="D1" s="3"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A2" s="19"/>
@@ -1445,42 +1445,42 @@
       <c r="M2" s="21"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
     </row>
     <row r="3" spans="1:26" s="42" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="86" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="86" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="91" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
       <c r="N3" s="41"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
       <c r="W3" s="43"/>
     </row>
     <row r="4" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
@@ -1510,224 +1510,224 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="66" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="66" t="s">
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="66" t="s">
+      <c r="H5" s="74"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="67"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="66" t="s">
+      <c r="K5" s="74"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66" t="s">
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="66" t="s">
+      <c r="Q5" s="74"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="67"/>
-      <c r="U5" s="68"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="75"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="69"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="69"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="69"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="69"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="70"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="69"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="76"/>
       <c r="Q6" s="70"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="69"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="76"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="71"/>
+      <c r="U6" s="77"/>
     </row>
     <row r="7" spans="1:26" s="15" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="78">
         <v>0.375</v>
       </c>
-      <c r="C7" s="73"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="78">
         <v>0.375</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="78">
         <v>0.375</v>
       </c>
-      <c r="I7" s="73"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="78">
         <v>0.375</v>
       </c>
-      <c r="L7" s="73"/>
+      <c r="L7" s="79"/>
       <c r="M7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="72">
+      <c r="N7" s="78">
         <v>0.375</v>
       </c>
-      <c r="O7" s="73"/>
+      <c r="O7" s="79"/>
       <c r="P7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="72">
+      <c r="Q7" s="78">
         <v>-8</v>
       </c>
-      <c r="R7" s="73"/>
+      <c r="R7" s="79"/>
       <c r="S7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="72">
+      <c r="T7" s="78">
         <v>-8</v>
       </c>
-      <c r="U7" s="73"/>
+      <c r="U7" s="79"/>
     </row>
     <row r="8" spans="1:26" s="15" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="80">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="80">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="80">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I8" s="73"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="80">
         <v>0.72916666666666663</v>
       </c>
-      <c r="L8" s="73"/>
+      <c r="L8" s="79"/>
       <c r="M8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="78">
+      <c r="N8" s="80">
         <v>0.72916666666666663</v>
       </c>
-      <c r="O8" s="73"/>
+      <c r="O8" s="79"/>
       <c r="P8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="72">
+      <c r="Q8" s="78">
         <v>-8</v>
       </c>
-      <c r="R8" s="73"/>
+      <c r="R8" s="79"/>
       <c r="S8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="72">
+      <c r="T8" s="78">
         <v>-8</v>
       </c>
-      <c r="U8" s="73"/>
+      <c r="U8" s="79"/>
     </row>
     <row r="9" spans="1:26" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="81">
         <f>IF(B7&gt;B8,B8+1-B7,B8-B7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="C9" s="75"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="81">
         <f>IF(E7&gt;E8,E8+1-E7,E8-E7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="F9" s="75"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="81">
         <f>IF(H7&gt;H8,H8+1-H7,H8-H7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="I9" s="75"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="81">
         <f>IF(K7&gt;K8,K8+1-K7,K8-K7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="L9" s="75"/>
+      <c r="L9" s="82"/>
       <c r="M9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="74">
+      <c r="N9" s="81">
         <f>IF(N7&gt;N8,N8+1-N7,N8-N7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="O9" s="75"/>
+      <c r="O9" s="82"/>
       <c r="P9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="74">
+      <c r="Q9" s="81">
         <f>IF(Q7&gt;Q8,Q8+1-Q7,Q8-Q7)*24</f>
         <v>0</v>
       </c>
-      <c r="R9" s="75"/>
+      <c r="R9" s="82"/>
       <c r="S9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="74">
+      <c r="T9" s="81">
         <f>IF(T7&gt;T8,T8+1-T7,T8-T7)*24</f>
         <v>0</v>
       </c>
-      <c r="U9" s="75"/>
+      <c r="U9" s="82"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
@@ -1756,48 +1756,48 @@
       <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="83">
         <v>0.5</v>
       </c>
-      <c r="F11" s="77"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="83">
         <v>0.5</v>
       </c>
-      <c r="I11" s="77"/>
+      <c r="I11" s="84"/>
       <c r="J11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="83">
         <v>0.5</v>
       </c>
-      <c r="L11" s="77"/>
+      <c r="L11" s="84"/>
       <c r="M11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="76">
+      <c r="N11" s="83">
         <v>0.5</v>
       </c>
-      <c r="O11" s="77"/>
+      <c r="O11" s="84"/>
       <c r="P11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="77"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
       <c r="S11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="T11" s="76"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="84"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -1826,59 +1826,59 @@
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="79">
+      <c r="B13" s="85">
         <f>B9-B11</f>
         <v>8</v>
       </c>
-      <c r="C13" s="80"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="85">
         <f>E9-E11</f>
         <v>8</v>
       </c>
-      <c r="F13" s="80"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="79">
+      <c r="H13" s="85">
         <f>H9-H11</f>
         <v>8</v>
       </c>
-      <c r="I13" s="80"/>
+      <c r="I13" s="86"/>
       <c r="J13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="79">
+      <c r="K13" s="85">
         <f>K9-K11</f>
         <v>8</v>
       </c>
-      <c r="L13" s="80"/>
+      <c r="L13" s="86"/>
       <c r="M13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="79">
+      <c r="N13" s="85">
         <f>N9-N11</f>
         <v>8</v>
       </c>
-      <c r="O13" s="80"/>
+      <c r="O13" s="86"/>
       <c r="P13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="79">
+      <c r="Q13" s="85">
         <f>Q9-Q11</f>
         <v>0</v>
       </c>
-      <c r="R13" s="80"/>
+      <c r="R13" s="86"/>
       <c r="S13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="T13" s="79">
+      <c r="T13" s="85">
         <f>T9-T11</f>
         <v>0</v>
       </c>
-      <c r="U13" s="80"/>
+      <c r="U13" s="86"/>
     </row>
     <row r="14" spans="1:26" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
@@ -1907,38 +1907,38 @@
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="83"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="83"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="83"/>
+      <c r="I15" s="88"/>
       <c r="J15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="82" t="s">
+      <c r="K15" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="83"/>
+      <c r="L15" s="88"/>
       <c r="M15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="82" t="s">
+      <c r="N15" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="83"/>
+      <c r="O15" s="88"/>
       <c r="P15" s="16" t="s">
         <v>15</v>
       </c>
@@ -1947,8 +1947,8 @@
       <c r="S15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="82"/>
-      <c r="U15" s="83"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="88"/>
     </row>
     <row r="16" spans="1:26" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
@@ -1977,28 +1977,28 @@
       <c r="A17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="83"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="88"/>
       <c r="J17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
       <c r="M17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="82"/>
-      <c r="O17" s="83"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="88"/>
       <c r="P17" s="16" t="s">
         <v>17</v>
       </c>
@@ -2007,8 +2007,8 @@
       <c r="S17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T17" s="82"/>
-      <c r="U17" s="83"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="88"/>
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
@@ -2126,35 +2126,35 @@
         <v>67</v>
       </c>
       <c r="B21" s="49">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="44" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="52">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="44" t="s">
         <v>67</v>
       </c>
       <c r="H21" s="49">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I21" s="51"/>
       <c r="J21" s="44" t="s">
         <v>67</v>
       </c>
       <c r="K21" s="52">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L21" s="51"/>
       <c r="M21" s="44" t="s">
         <v>67</v>
       </c>
       <c r="N21" s="52">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O21" s="50"/>
       <c r="P21" s="44"/>
@@ -2169,35 +2169,35 @@
         <v>68</v>
       </c>
       <c r="B22" s="52">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="45" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="52">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="45" t="s">
         <v>68</v>
       </c>
       <c r="H22" s="52">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="45" t="s">
         <v>68</v>
       </c>
       <c r="K22" s="52">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L22" s="54"/>
       <c r="M22" s="45" t="s">
         <v>68</v>
       </c>
       <c r="N22" s="52">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O22" s="53"/>
       <c r="P22" s="45"/>
@@ -2645,59 +2645,59 @@
       <c r="A41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="81">
+      <c r="B41" s="89">
         <f>IF(SUM(B21:B40)=0,"0",SUM(B21:B40))</f>
         <v>8</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="81">
+      <c r="E41" s="89">
         <f>IF(SUM(E21:E40)=0,"0",SUM(E21:E40))</f>
         <v>8</v>
       </c>
-      <c r="F41" s="73"/>
+      <c r="F41" s="79"/>
       <c r="G41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="81">
+      <c r="H41" s="89">
         <f>IF(SUM(H21:H40)=0,"0",SUM(H21:H40))</f>
         <v>8</v>
       </c>
-      <c r="I41" s="73"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="K41" s="81">
+      <c r="K41" s="89">
         <f>IF(SUM(K21:K40)=0,"0",SUM(K21:K40))</f>
         <v>8</v>
       </c>
-      <c r="L41" s="73"/>
+      <c r="L41" s="79"/>
       <c r="M41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="N41" s="81">
+      <c r="N41" s="89">
         <f>IF(SUM(N21:N40)=0,"0",SUM(N21:N40))</f>
         <v>8</v>
       </c>
-      <c r="O41" s="73"/>
+      <c r="O41" s="79"/>
       <c r="P41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Q41" s="81" t="str">
+      <c r="Q41" s="89" t="str">
         <f>IF(SUM(Q21:Q40)=0,"0",SUM(Q21:Q40))</f>
         <v>0</v>
       </c>
-      <c r="R41" s="73"/>
+      <c r="R41" s="79"/>
       <c r="S41" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="T41" s="81" t="str">
+      <c r="T41" s="89" t="str">
         <f>IF(SUM(T21:T40)=0,"0",SUM(T21:T40))</f>
         <v>0</v>
       </c>
-      <c r="U41" s="73"/>
+      <c r="U41" s="79"/>
     </row>
     <row r="42" spans="1:21" s="18" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="33"/>
@@ -2740,7 +2740,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="84" t="s">
+      <c r="M43" s="90" t="s">
         <v>22</v>
       </c>
       <c r="N43" s="5"/>
@@ -2753,7 +2753,7 @@
       <c r="U43" s="5"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="M44" s="85"/>
+      <c r="M44" s="91"/>
       <c r="N44" s="36"/>
       <c r="O44" s="36"/>
     </row>
@@ -2965,17 +2965,17 @@
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="63"/>
-      <c r="K62" s="64" t="s">
+      <c r="K62" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="65"/>
-      <c r="P62" s="65"/>
-      <c r="Q62" s="65"/>
-      <c r="R62" s="65"/>
-      <c r="S62" s="65"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
       <c r="T62" s="38"/>
       <c r="U62" s="38"/>
     </row>
@@ -2985,15 +2985,15 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="J63" s="62"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
     </row>
     <row r="64" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
@@ -3436,59 +3436,6 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="P1:U4"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="T13:U13"/>
     <mergeCell ref="K62:S63"/>
     <mergeCell ref="P5:R6"/>
     <mergeCell ref="Q7:R7"/>
@@ -3505,6 +3452,59 @@
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="J5:L6"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="P1:U4"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="G1:M1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047249" right="0.11811023622047249" top="0.11811023622047249" bottom="0.11811023622047249" header="0" footer="0"/>
